--- a/loaded_influencer_data/dayinmyluxelife/dayinmyluxelife_video.xlsx
+++ b/loaded_influencer_data/dayinmyluxelife/dayinmyluxelife_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7480594815390977298</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="C2" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D2" t="n">
         <v>137</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>44.92099322799097</v>
+        <v>44.60511679644049</v>
       </c>
       <c r="I2" t="n">
-        <v>29.45823927765237</v>
+        <v>29.36596218020022</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.4627539503386</v>
+        <v>15.23915461624027</v>
       </c>
       <c r="L2" t="n">
-        <v>2.483069977426636</v>
+        <v>2.447163515016685</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,16 +558,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7479121634046119186</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="C3" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D3" t="n">
         <v>164</v>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>48.0728051391863</v>
+        <v>47.57894736842105</v>
       </c>
       <c r="I3" t="n">
-        <v>30.51391862955033</v>
+        <v>30.31578947368421</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>17.55888650963598</v>
+        <v>17.26315789473684</v>
       </c>
       <c r="L3" t="n">
-        <v>2.78372591006424</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -611,790 +611,942 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dayinmyluxelife/video/7489134824649755911</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>307</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>My March Favourites! 🎀🌸🩷
+@SKIN1004 US @Sara Ali Cosmetics @Sol de Janeiro
+#girlessentials</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>47.88273615635179</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.24755700325733</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.63517915309446</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.560260586319218</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dayinmyluxelife/video/7488774307150105874</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>273</v>
+      </c>
+      <c r="C5" t="n">
+        <v>93</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pov: you love being extra on EID ❤️🌹
+#eid #eidmubarak #eidkikhushiyan #eidulfitr #eid2025 #desi #desifit</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>58.24175824175825</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34.06593406593407</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.17582417582418</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.86080586080586</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dayinmyluxelife/video/7486984529937304840</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>447</v>
+      </c>
+      <c r="C6" t="n">
+        <v>135</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>When you love pink🩷🎀
+@Versace @Lancôme @SKIN1004 US @Primark @Sara Ali Cosmetics</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>49.44071588366891</v>
+      </c>
+      <c r="I6" t="n">
+        <v>30.2013422818792</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19.23937360178971</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.592841163310962</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7486574209922010376</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>335</v>
-      </c>
-      <c r="C4" t="n">
-        <v>101</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B7" t="n">
+        <v>448</v>
+      </c>
+      <c r="C7" t="n">
+        <v>135</v>
+      </c>
+      <c r="D7" t="n">
+        <v>111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Can we take a moment to appreciate how this primer gives an instant brightening effect? No filter needed. Just smooth, radiant skin!🌼💛</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>57.91044776119403</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30.14925373134328</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.76119402985075</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.776119402985075</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="H7" t="n">
+        <v>54.91071428571429</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30.13392857142857</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24.77678571428572</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.910714285714286</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7486206376625196306</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>417</v>
-      </c>
-      <c r="C5" t="n">
-        <v>148</v>
-      </c>
-      <c r="D5" t="n">
-        <v>127</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B8" t="n">
+        <v>484</v>
+      </c>
+      <c r="C8" t="n">
+        <v>135</v>
+      </c>
+      <c r="D8" t="n">
+        <v>111</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Can we take a moment to appreciate how this primer gives an instant brightening effect? No filter needed. Just smooth, radiant skin!🌼💛</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>50.82644628099173</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.89256198347108</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.93388429752066</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dayinmyluxelife/video/7485833536629394706</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>407</v>
+      </c>
+      <c r="C9" t="n">
+        <v>165</v>
+      </c>
+      <c r="D9" t="n">
+        <v>130</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Just a girl, her chai, and a cozy Ramadan vibe ☕✨🌙
 #chai #teatime #chailover #iftar #ramadanvibes</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>65.94724220623502</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35.4916067146283</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>30.45563549160671</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.995203836930456</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@dayinmyluxelife/video/7485833536629394706</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>346</v>
-      </c>
-      <c r="C6" t="n">
-        <v>117</v>
-      </c>
-      <c r="D6" t="n">
-        <v>103</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>BRB, buying every style - these Primark nails are too good! 😍
-@Primark
-#primark #primarknails #primarklondon</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>63.58381502890174</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33.81502890173411</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.76878612716763</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.202312138728324</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H9" t="n">
+        <v>72.48157248157248</v>
+      </c>
+      <c r="I9" t="n">
+        <v>40.54054054054054</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.94103194103194</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.125307125307126</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/photo/7485410031375027463</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>399</v>
-      </c>
-      <c r="C7" t="n">
-        <v>136</v>
-      </c>
-      <c r="D7" t="n">
-        <v>77</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>If lost, find me in London’s cutest spots❤️
-#london #londonlife #visitlondon #explorelondon</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>53.38345864661655</v>
-      </c>
-      <c r="I7" t="n">
-        <v>34.08521303258145</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19.29824561403509</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.015037593984962</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="B10" t="n">
+        <v>504</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129</v>
+      </c>
+      <c r="D10" t="n">
+        <v>111</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Just a girl, her chai, and a cozy Ramadan vibe ☕✨🌙
+#chai #teatime #chailover #iftar #ramadanvibes</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>47.61904761904761</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25.59523809523809</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.02380952380952</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.365079365079365</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7485234951042977032</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B11" t="n">
         <v>349</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C11" t="n">
         <v>120</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D11" t="n">
         <v>88</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>17</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Lets connect &amp; support each other!🩷🧸 Following all those who follow me through this post💟</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>59.59885386819484</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>34.38395415472779</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>25.21489971346705</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>4.871060171919771</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7485039586297515271</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>374</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>151</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>120</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>20</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Glass skin unlocked ✨ Thanks to SKIN1004 Tone Brightening Ampoule! 🤍
 @SKIN1004 US
 Available at @YesStyle</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>72.45989304812835</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>40.37433155080214</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>32.0855614973262</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>5.347593582887701</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/photo/7484326663174589704</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>475</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>123</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>92</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>30</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>UGC CREATORS, READ THIS BEFORE YOU GET SCAMMED! 🚨
 If you’re a new UGC creator, you NEED to know about these scams before it’s too late! ❌ From fake brand deals to shady ambassador programs, these tricks can cost you money, time, and effort.</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>45.26315789473684</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>25.89473684210526</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>19.36842105263158</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>6.315789473684211</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7483635268063366407</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>549</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>220</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>194</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>31</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>My everyday must haves! ͙֒✧🌷🩷🎀༘⋆
 @Huda Beauty @Huda @Dior @Diorbeauty
 #everydaylippies</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>75.40983606557377</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>40.07285974499089</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>35.33697632058288</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>5.646630236794172</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7483609202938662162</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>281</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>110</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>44</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>My everyday Must-haves!🌷͙֒✧🩷˚🎀༘
 @Dior @Diorbeauty @Huda Beauty @Huda
 #everydaylippie</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>54.80427046263345</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>39.14590747330961</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>15.65836298932384</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>2.846975088967971</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7483265700568501522</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>406</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>139</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>87</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>18</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Obsessed with Sara Ali Cosmetics shampoo &amp; conditioner! My hair feels unbelievably soft, smooth, and frizz-free after just one wash. It lathers perfectly and leaves no buildup—just clean, healthy hair! ✨ But the best part? The scent is absolutely divine! 🌸 It’s fresh, long-lasting, and makes my hair smell like I just stepped out of a luxury salon. 💖 Definitely a must-have in my hair care routine!</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>55.66502463054187</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>34.23645320197045</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>21.42857142857143</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>4.433497536945813</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7482834983074237704</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>496</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>203</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>131</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>25</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Savoring the last sip of this rich, creamy hot chocolate before winter says goodbye! ☕❄️
 #hotchocolate</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>67.33870967741935</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>40.92741935483871</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>26.41129032258064</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>5.040322580645161</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7482526530812333319</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>673</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>228</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>99</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>20</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>This and no time limit… what’s the first thing you’re grabbing?👀✨
 @sephora @Sephora Thailand</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>48.58841010401188</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>33.87815750371471</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>14.71025260029718</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>2.971768202080237</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7482151969189055762</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>708</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>192</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>125</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>18</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Anua Heartleaf Quercetinol Pore Deep Cleansing Foam is my ultimate favourite! It doesn’t irritate my sensitive skin and makes my skin so fresh &amp; glowy! It also helps with makeup removal, I’m not into double cleansing because oil cleansers break me out so it works just fine for my oily skin too🤍</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>44.77401129943503</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>27.11864406779661</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>17.65536723163842</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>2.542372881355933</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7481688534676425991</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>549</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>170</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>87</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>9</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>#pakistanifashion #desioutfit #desifit #fridayootd #fridayoutfit #womenfashion</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>46.81238615664845</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>30.96539162112932</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>15.84699453551913</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>1.639344262295082</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7481328556677549320</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>532</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>190</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>89</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>16</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>#vanitymakeup #viralreel #makeupreel #makeupvideo #pakistanibrands #saraalicosmetics #beutyproducts</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>52.44360902255639</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>35.71428571428572</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>16.72932330827068</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>3.007518796992481</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7480965016179559688</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>474</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>146</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>64</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>7</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>How many have you ticked off the list?🫣
 Drop your number below!👇🏻
@@ -1402,384 +1554,384 @@
 #travel</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>44.30379746835442</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>30.80168776371308</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>13.50210970464135</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>1.476793248945148</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7480226174480731410</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>447</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>191</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>72</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>16</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Lost in the waves, found in the peace😌
 #travel #travelreels #peacefulbeach #relaxingbeach #phiphiisland</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>58.83668903803132</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>42.72930648769575</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>16.10738255033557</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>3.579418344519016</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7479860066779286791</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>509</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>200</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>101</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>14</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>London - where every corner is a postcard moment 🫶🏻
 #london #londontravel #londonugc</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>59.13555992141454</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>39.29273084479371</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>19.84282907662082</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>2.75049115913556</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7479556896786042130</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>598</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>194</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>57</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Me: "I should save money and stay home."
 Also me: Travelling AGAIN.🤣
 At this point, my passport is my best friend, and my suitcase never gets a break.✈️ Who else can relate?</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>41.97324414715719</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>32.44147157190636</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>9.531772575250837</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>1.003344481605351</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7479363524519660818</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>676</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>231</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>178</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>19</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Let’s support each other🎀🫶🏻
 #teamwork #teamworkmakesthedreamwork</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>60.50295857988166</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>34.17159763313609</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>26.33136094674556</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>2.810650887573964</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7478644394648816914</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>632</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>222</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>89</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>23</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>The Skin1004 Madagascar Centella
 Poremizing Fresh Ampoule is designed to minimize the appearance of pores, control excess oil, and soothe sensitive skin. It has become my holy grail product</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>49.20886075949367</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>35.12658227848101</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>14.08227848101266</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>3.639240506329114</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7478397459757092104</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>619</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>213</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>91</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>20</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>This Anua toner is my daily skincare non-negotiable! Whats yours? 🕊️
 #ugc #ugccreator #ugccontentcreator</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>49.11147011308562</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>34.41033925686591</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>14.70113085621971</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>3.231017770597738</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@dayinmyluxelife/video/7469594942336290055</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>335</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>149</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>55</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>16</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>If you adore her, DIOR her🎀
 @Diorbeauty Colour Reviving Lip Balm💗
 #ugc #ugccreator #ugccontentcreator</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>60.8955223880597</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>44.47761194029851</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>16.41791044776119</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>4.776119402985075</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
